--- a/apps/client-assets/assets/common/user-bulk-upload-sample.xlsx
+++ b/apps/client-assets/assets/common/user-bulk-upload-sample.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>firstname</t>
   </si>
@@ -22,22 +22,19 @@
     <t>email</t>
   </si>
   <si>
-    <t>TestUserFirstName</t>
-  </si>
-  <si>
-    <t>TestUserLastName</t>
-  </si>
-  <si>
-    <t>testuser@test.com</t>
+    <t>Christopher</t>
+  </si>
+  <si>
+    <t>Fernandes</t>
+  </si>
+  <si>
+    <t>christopher@test.com</t>
   </si>
   <si>
     <t>Christy</t>
   </si>
   <si>
-    <t>Fernandes</t>
-  </si>
-  <si>
-    <t>test12email@test.com</t>
+    <t>christy@test.com</t>
   </si>
   <si>
     <t>Test</t>
@@ -46,7 +43,7 @@
     <t>test</t>
   </si>
   <si>
-    <t>testemail123@test.com</t>
+    <t>test@test.com</t>
   </si>
 </sst>
 </file>
@@ -304,11 +301,6 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="32.57"/>
-    <col customWidth="1" min="2" max="2" width="32.29"/>
-    <col customWidth="1" min="3" max="3" width="29.86"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -322,10 +314,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -337,21 +329,21 @@
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
